--- a/batt_sust_model/data/bw_default_project_parameters.xlsx
+++ b/batt_sust_model/data/bw_default_project_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model/batt_sust_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{1C8378D3-C122-4DC0-AF60-2B288054418E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBC82564-8C3A-415F-A46F-5233E54CA638}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{1C8378D3-C122-4DC0-AF60-2B288054418E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28325E02-681A-42FE-A85E-B7DD5ED58AD0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73F7B40F-43E3-4C3C-838A-793800553B60}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>py_am_mixing_total</t>
   </si>
@@ -360,9 +360,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>cathode_active_material_nmc532_50_lmo</t>
-  </si>
-  <si>
     <t>busbar</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
     <t>sum([anode_active_material_natural_graphite,anode_active_material_sio,anode_active_material_synthetic_graphite])</t>
   </si>
   <si>
-    <t>sum([cathode_active_material_lfp,cathode_active_material_lmo,cathode_active_material_nca,cathode_active_material_nmc333,cathode_active_material_nmc532,cathode_active_material_nmc622,cathode_active_material_nmc811,cathode_active_material_nmc532_50_lmo])</t>
-  </si>
-  <si>
     <t>battery_jacket_al</t>
   </si>
   <si>
@@ -526,6 +520,15 @@
   </si>
   <si>
     <t>module_row_rack</t>
+  </si>
+  <si>
+    <t>module_elastomer_pads</t>
+  </si>
+  <si>
+    <t>cathode_active_material_50_50_nmc532_lmo</t>
+  </si>
+  <si>
+    <t>sum([cathode_active_material_lfp,cathode_active_material_lmo,cathode_active_material_nca,cathode_active_material_nmc333,cathode_active_material_nmc532,cathode_active_material_nmc622,cathode_active_material_nmc811,cathode_active_material_50_50_nmc532_lmo])</t>
   </si>
 </sst>
 </file>
@@ -892,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BED7FD-7EC9-4F64-8688-09A0BC4763E8}">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -920,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -992,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1053,7 +1056,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1061,7 +1064,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1080,20 +1083,20 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
         <v>118</v>
-      </c>
-      <c r="C23" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24">
         <v>23.500000000000028</v>
@@ -1109,17 +1112,17 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1143,7 +1146,7 @@
         <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1151,7 +1154,7 @@
         <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1164,15 +1167,15 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
         <v>126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1183,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1228,7 +1231,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1340,7 +1343,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1356,13 +1359,13 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
         <v>122</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1378,12 +1381,12 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61">
         <v>0.5</v>
@@ -1391,7 +1394,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62">
         <v>0.5</v>
@@ -1466,7 +1469,7 @@
         <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1474,7 +1477,7 @@
         <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1522,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1551,7 +1554,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B82" s="1">
         <v>6.752443570376325E-2</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B83" s="1">
         <v>2.0307695912343372E-2</v>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B85" s="1">
         <v>2.7745903390636758E-2</v>
@@ -1583,7 +1586,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B86" s="1">
         <v>0.41652482447233097</v>
@@ -1599,7 +1602,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" s="1">
         <v>0.20851930225039206</v>
@@ -1607,7 +1610,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B89" s="1">
         <v>0.17478823865106391</v>
@@ -1642,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1671,7 +1674,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2">
         <v>0.26560201717858084</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" s="1">
         <v>3.8276003855677092</v>
@@ -1690,7 +1693,7 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1743,7 +1746,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106">
         <v>0.2</v>
@@ -1770,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1810,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1850,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1890,7 +1893,7 @@
         <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1898,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="C125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1906,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1914,53 +1917,58 @@
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B128">
-        <v>100000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/batt_sust_model/data/bw_default_project_parameters.xlsx
+++ b/batt_sust_model/data/bw_default_project_parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/batt_sust_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\OneDrive - Newcastle University\Python\Projects\Batt_Sust_Model-1\batt_sust_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{1C8378D3-C122-4DC0-AF60-2B288054418E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28325E02-681A-42FE-A85E-B7DD5ED58AD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B097500-B2B1-45D8-A846-E3F5A50AA46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73F7B40F-43E3-4C3C-838A-793800553B60}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>py_am_mixing_total</t>
   </si>
@@ -432,9 +432,6 @@
     <t>enclosed_cell+((electrolyte_lfp+electrolyte_lmo+electrolyte_nmc_nca)/py_cell_aging)</t>
   </si>
   <si>
-    <t>(separator_5um+separator_7um+separator_9um+coated_separator_5um_2um+coated_separator_7um_2um+coated_separator_9um_3um)</t>
-  </si>
-  <si>
     <t>(separator/(py_cell_aging*py_separator_stacking))*(1-py_separator_stacking)</t>
   </si>
   <si>
@@ -529,6 +526,24 @@
   </si>
   <si>
     <t>sum([cathode_active_material_lfp,cathode_active_material_lmo,cathode_active_material_nca,cathode_active_material_nmc333,cathode_active_material_nmc532,cathode_active_material_nmc622,cathode_active_material_nmc811,cathode_active_material_50_50_nmc532_lmo])</t>
+  </si>
+  <si>
+    <t>separator_11um</t>
+  </si>
+  <si>
+    <t>separator_13um</t>
+  </si>
+  <si>
+    <t>separator_15um</t>
+  </si>
+  <si>
+    <t>separator_17um</t>
+  </si>
+  <si>
+    <t>separator_19um</t>
+  </si>
+  <si>
+    <t>(separator_5um+separator_7um+separator_9um+separator_11um+separator_13um+separator_15um+separator_17um+separator_19um+coated_separator_5um_2um+coated_separator_7um_2um+coated_separator_9um_3um)</t>
   </si>
 </sst>
 </file>
@@ -895,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BED7FD-7EC9-4F64-8688-09A0BC4763E8}">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="B106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -923,7 +938,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -995,7 +1010,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1056,7 +1071,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1064,7 +1079,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1096,7 +1111,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24">
         <v>23.500000000000028</v>
@@ -1112,17 +1127,17 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1186,7 +1201,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1231,7 +1246,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1282,7 +1297,7 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1343,7 +1358,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1351,7 +1366,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1386,7 +1401,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61">
         <v>0.5</v>
@@ -1394,7 +1409,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62">
         <v>0.5</v>
@@ -1554,7 +1569,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" s="1">
         <v>6.752443570376325E-2</v>
@@ -1562,7 +1577,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B83" s="1">
         <v>2.0307695912343372E-2</v>
@@ -1578,7 +1593,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" s="1">
         <v>2.7745903390636758E-2</v>
@@ -1586,7 +1601,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86" s="1">
         <v>0.41652482447233097</v>
@@ -1602,7 +1617,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" s="1">
         <v>0.20851930225039206</v>
@@ -1610,7 +1625,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B89" s="1">
         <v>0.17478823865106391</v>
@@ -1674,7 +1689,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B97" s="2">
         <v>0.26560201717858084</v>
@@ -1682,7 +1697,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98" s="1">
         <v>3.8276003855677092</v>
@@ -1693,7 +1708,7 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1890,47 +1905,47 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" t="s">
-        <v>132</v>
+        <v>163</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" t="s">
-        <v>120</v>
+        <v>164</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" t="s">
-        <v>127</v>
+        <v>165</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" t="s">
-        <v>130</v>
+        <v>166</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B128">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>
@@ -1938,37 +1953,77 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>112</v>
+      </c>
+      <c r="B133">
+        <v>500000</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>128</v>
+      </c>
+      <c r="C134" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
